--- a/DailyLogBook_WIL  Hubert Mouton.xlsx
+++ b/DailyLogBook_WIL  Hubert Mouton.xlsx
@@ -306,41 +306,13 @@
     <t xml:space="preserve">12/May/2021</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Public Holiday: from Home(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Implement feedback from stakeholders on the prototype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Public Holiday: from Home(Implement feedback from stakeholders on the prototype)</t>
   </si>
   <si>
     <t xml:space="preserve">13/May/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Start Development on localhost</t>
+    <t xml:space="preserve">Set up CI pipeline on github</t>
   </si>
   <si>
     <t xml:space="preserve">14/May/2021</t>
@@ -388,7 +360,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yyyy"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -446,12 +418,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -765,11 +731,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,11 +818,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.43"/>
